--- a/Requisitos/product_backlog.xlsx
+++ b/Requisitos/product_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PI\grupo9-ads\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B4A577-7A5A-4237-8BED-62E0347C0E34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D8C81-1B60-4A2E-B12C-ACE52AAAB522}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F1C4DADD-FD84-4BF2-A3A9-24EEBFABB33A}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
